--- a/xl/class test/exam.xlsx
+++ b/xl/class test/exam.xlsx
@@ -1,25 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rafin\cf\xl\class test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40CE967-F7FC-45CE-9D8E-FDBFFCDE7522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>SRNO</t>
+  </si>
+  <si>
+    <t>ITEMS</t>
+  </si>
+  <si>
+    <t>QTY</t>
+  </si>
+  <si>
+    <t>RATE</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>GRADE</t>
+  </si>
+  <si>
+    <t>AC</t>
+  </si>
+  <si>
+    <t>FRIDGE</t>
+  </si>
+  <si>
+    <t>COOLER</t>
+  </si>
+  <si>
+    <t>WASHING MACHINE</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>FAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMPUTER </t>
+  </si>
+  <si>
+    <t>KEYBOARD</t>
+  </si>
+  <si>
+    <t>MOUSE</t>
+  </si>
+  <si>
+    <t>PRINTER</t>
+  </si>
+  <si>
+    <t>Employee ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Basic Pay</t>
+  </si>
+  <si>
+    <t>House Rent</t>
+  </si>
+  <si>
+    <t>Medical Allowance</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Gross Pay</t>
+  </si>
+  <si>
+    <t>Niaz</t>
+  </si>
+  <si>
+    <t>Hasan</t>
+  </si>
+  <si>
+    <t>Rafin</t>
+  </si>
+  <si>
+    <t>Fahim</t>
+  </si>
+  <si>
+    <t>Rijon</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,15 +134,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +156,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +463,441 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="G8:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="8" max="8" width="24.5703125" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>20</v>
+      </c>
+      <c r="J9" s="2">
+        <v>40000</v>
+      </c>
+      <c r="K9" s="2">
+        <f>I9*J9</f>
+        <v>800000</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f>IF(K9&gt;500000,"Expensive","Lets Buy it")</f>
+        <v>Expensive</v>
+      </c>
+    </row>
+    <row r="10" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2">
+        <v>20000</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" ref="K10:K18" si="0">I10*J10</f>
+        <v>600000</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f t="shared" ref="L10:L18" si="1">IF(K10&gt;500000,"Expensive","Lets Buy it")</f>
+        <v>Expensive</v>
+      </c>
+    </row>
+    <row r="11" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>3</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2">
+        <v>15</v>
+      </c>
+      <c r="J11" s="2">
+        <v>10000</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Lets Buy it</v>
+      </c>
+    </row>
+    <row r="12" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="2">
+        <v>14</v>
+      </c>
+      <c r="J12" s="2">
+        <v>15000</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="0"/>
+        <v>210000</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Lets Buy it</v>
+      </c>
+    </row>
+    <row r="13" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>5</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2">
+        <v>20000</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="0"/>
+        <v>360000</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Lets Buy it</v>
+      </c>
+    </row>
+    <row r="14" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>6</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" s="2">
+        <v>17</v>
+      </c>
+      <c r="J14" s="2">
+        <v>2000</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="0"/>
+        <v>34000</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Lets Buy it</v>
+      </c>
+    </row>
+    <row r="15" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="2">
+        <v>10</v>
+      </c>
+      <c r="J15" s="2">
+        <v>25000</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Lets Buy it</v>
+      </c>
+    </row>
+    <row r="16" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="2">
+        <v>5</v>
+      </c>
+      <c r="J16" s="2">
+        <v>250</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>1250</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Lets Buy it</v>
+      </c>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <v>9</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="2">
+        <v>25</v>
+      </c>
+      <c r="J17" s="2">
+        <v>100</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Lets Buy it</v>
+      </c>
+    </row>
+    <row r="18" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>10</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="2">
+        <v>30</v>
+      </c>
+      <c r="J18" s="2">
+        <v>12000</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="0"/>
+        <v>360000</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>Lets Buy it</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73F3C06-CBA2-417A-BC45-6C37F5DCD183}">
+  <dimension ref="F9:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F10" s="1">
+        <v>454</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I10" s="1">
+        <f>H10*30%</f>
+        <v>15000</v>
+      </c>
+      <c r="J10" s="1">
+        <f>H10*10%</f>
+        <v>5000</v>
+      </c>
+      <c r="K10" s="1">
+        <f>H10*8%</f>
+        <v>4000</v>
+      </c>
+      <c r="L10" s="1">
+        <f>SUM(H10:K10)</f>
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="11" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="1">
+        <v>455</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="1">
+        <v>45000</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" ref="I11:I14" si="0">H11*30%</f>
+        <v>13500</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" ref="J11:J14" si="1">H11*10%</f>
+        <v>4500</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" ref="K11:K14" si="2">H11*8%</f>
+        <v>3600</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" ref="L11:L14" si="3">SUM(H11:K11)</f>
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="1">
+        <v>526546</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="1">
+        <v>50000</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="0"/>
+        <v>15000</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>74000</v>
+      </c>
+    </row>
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="1">
+        <v>55</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="1">
+        <v>40000</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="0"/>
+        <v>12000</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>3200</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>59200</v>
+      </c>
+    </row>
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="F14" s="1">
+        <v>4554</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" s="1">
+        <v>55000</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="0"/>
+        <v>16500</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="1"/>
+        <v>5500</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>81400</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>